--- a/CITRINE_hardness_dataset_sorted.xlsx
+++ b/CITRINE_hardness_dataset_sorted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boichot\Desktop\Minimal_NN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boichot\Downloads\Minimal-neural-network-for-exploring-multi-principal-element-alloys-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="118">
   <si>
     <t>Al</t>
   </si>
@@ -1179,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="D55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,45 +2599,45 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
       </c>
       <c r="H55">
-        <v>178</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
@@ -2646,24 +2646,24 @@
         <v>11</v>
       </c>
       <c r="H56">
-        <v>1183</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
@@ -2672,85 +2672,85 @@
         <v>11</v>
       </c>
       <c r="H57">
-        <v>519</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>472</v>
+        <v>905</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="H59">
-        <v>905</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60">
-        <v>549</v>
+        <v>31</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,190 +2775,190 @@
       <c r="G61" t="s">
         <v>31</v>
       </c>
-      <c r="H61" t="s">
-        <v>75</v>
+      <c r="H61">
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="H62">
-        <v>622</v>
+        <v>712</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63">
-        <v>712</v>
+        <v>79</v>
+      </c>
+      <c r="H63" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="H67">
+        <v>854</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="H68">
-        <v>854</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2984,33 +2984,33 @@
         <v>11</v>
       </c>
       <c r="H69">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70">
-        <v>160</v>
+        <v>89</v>
+      </c>
+      <c r="H70" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3027,16 +3027,16 @@
         <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,16 +3053,16 @@
         <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3079,85 +3079,85 @@
         <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
@@ -3166,24 +3166,24 @@
         <v>11</v>
       </c>
       <c r="H76">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
@@ -3192,85 +3192,85 @@
         <v>11</v>
       </c>
       <c r="H77">
-        <v>500</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
       <c r="H78">
-        <v>733</v>
+        <v>672</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
       </c>
       <c r="H79">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3301,28 +3301,28 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E82" t="s">
         <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
       <c r="H82">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3330,25 +3330,25 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83">
-        <v>654</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3356,25 +3356,25 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84">
-        <v>509</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3382,25 +3382,25 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>113</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3408,25 +3408,25 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H86">
-        <v>210</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3434,25 +3434,25 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87">
-        <v>125</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
         <v>73</v>
@@ -3469,7 +3469,7 @@
         <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F88" t="s">
         <v>72</v>
@@ -3478,7 +3478,7 @@
         <v>11</v>
       </c>
       <c r="H88">
-        <v>263</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3486,25 +3486,25 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E89" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
-      <c r="H89">
-        <v>335</v>
+      <c r="H89" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3512,16 +3512,16 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -3529,8 +3529,8 @@
       <c r="G90" t="s">
         <v>11</v>
       </c>
-      <c r="H90" t="s">
-        <v>102</v>
+      <c r="H90">
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3538,25 +3538,25 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E91" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
       </c>
-      <c r="H91">
-        <v>223</v>
+      <c r="H91" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3567,22 +3567,22 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3593,22 +3593,22 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3619,22 +3619,22 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3645,22 +3645,22 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3668,25 +3668,25 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E96" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
       </c>
-      <c r="H96" t="s">
-        <v>113</v>
+      <c r="H96">
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3694,50 +3694,24 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F97" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="H97">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D98" t="s">
-        <v>116</v>
-      </c>
-      <c r="E98" t="s">
-        <v>116</v>
-      </c>
-      <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
-      <c r="H98">
         <v>210</v>
       </c>
     </row>

--- a/CITRINE_hardness_dataset_sorted.xlsx
+++ b/CITRINE_hardness_dataset_sorted.xlsx
@@ -856,8 +856,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1179,2539 +1182,2721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="D55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
         <v>487</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1">
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9">
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1">
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="H17" s="1">
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1">
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16">
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1">
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17">
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19">
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1">
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20">
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1">
         <v>623</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21">
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1">
         <v>402</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H23">
+      <c r="H30" s="1">
         <v>655</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24">
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1">
         <v>487</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25">
+      <c r="H32" s="1">
         <v>605</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28">
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1">
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29">
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30">
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1">
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31">
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="1">
         <v>643</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33">
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1">
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="1">
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H35">
+      <c r="H42" s="1">
         <v>801</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H36">
+      <c r="H43" s="1">
         <v>741</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H37">
+      <c r="H44" s="1">
         <v>586</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H38">
+      <c r="H45" s="1">
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H39">
+      <c r="H46" s="1">
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H40">
+      <c r="H47" s="1">
         <v>755</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H41">
+      <c r="H48" s="1">
         <v>639</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H42">
+      <c r="H49" s="1">
         <v>857</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H43">
+      <c r="H50" s="1">
         <v>715</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H44">
+      <c r="H51" s="1">
         <v>796</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H45">
+      <c r="H52" s="1">
         <v>730</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H46">
+      <c r="H53" s="1">
         <v>708</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H47">
+      <c r="H54" s="1">
         <v>586</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H48">
+      <c r="H55" s="1">
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1">
         <v>433</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="1">
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53">
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="1">
         <v>703</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="1">
         <v>1183</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="1">
         <v>905</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H59">
+      <c r="H66" s="1">
         <v>549</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H67" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H61">
+      <c r="H68" s="1">
         <v>622</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F69" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G69" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H62">
+      <c r="H69" s="1">
         <v>712</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D70" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E70" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F70" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H70" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H71" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H72" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H73" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H67">
+      <c r="H74" s="1">
         <v>854</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68">
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69">
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H77" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B78" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E78" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H78" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E79" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H79" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H74">
+      <c r="H81" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E82" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75">
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" t="s">
-        <v>46</v>
-      </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77">
+      <c r="B84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="1">
         <v>733</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1">
         <v>672</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="1">
         <v>667</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
-        <v>42</v>
-      </c>
-      <c r="E80" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s">
-        <v>42</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="1">
         <v>666</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
-        <v>42</v>
-      </c>
-      <c r="E81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="1">
         <v>666</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" t="s">
-        <v>42</v>
-      </c>
-      <c r="F82" t="s">
-        <v>46</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="1">
         <v>654</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83">
+      <c r="G90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="1">
         <v>509</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" t="s">
-        <v>42</v>
-      </c>
-      <c r="E84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E92" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H85">
+      <c r="H92" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E93" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86">
+      <c r="F93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C94" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D94" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E94" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F94" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87">
+      <c r="G94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D95" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E95" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F95" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88">
+      <c r="G95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" t="s">
-        <v>42</v>
-      </c>
-      <c r="E89" t="s">
-        <v>42</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90">
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F91" t="s">
-        <v>46</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="F98" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D99" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E99" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F99" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G92" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="G99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D100" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E100" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F102" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="G102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C103" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D103" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E103" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F103" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96">
+      <c r="G103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H97">
+      <c r="H104" s="1">
         <v>210</v>
       </c>
     </row>
